--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T08:17:45+00:00</t>
+    <t>2025-10-21T12:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -610,6 +610,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>https://identifiant-medicosocial-transportprofessionnel.cnsa.fr</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -625,7 +628,7 @@
     <t>Task.identifier.value</t>
   </si>
   <si>
-    <t>Format d'identifiant à respecter : 3+FINESS/identifiantLocalUsagerESSMS-TPPro-idTransport.</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -3993,10 +3996,10 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -4032,7 +4035,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4053,21 +4056,21 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4093,13 +4096,13 @@
         <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4113,7 +4116,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4149,7 +4152,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4170,21 +4173,21 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4207,13 +4210,13 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4264,7 +4267,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4285,21 +4288,21 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4322,16 +4325,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4381,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4402,21 +4405,21 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4439,17 +4442,17 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4498,7 +4501,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4516,10 +4519,10 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4559,14 +4562,14 @@
         <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4615,7 +4618,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4633,10 +4636,10 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4647,10 +4650,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4673,13 +4676,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4730,7 +4733,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4748,10 +4751,10 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4762,10 +4765,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4791,14 +4794,14 @@
         <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4847,7 +4850,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4865,10 +4868,10 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4879,10 +4882,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4905,19 +4908,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4966,7 +4969,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4984,10 +4987,10 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4998,10 +5001,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5027,14 +5030,14 @@
         <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5062,10 +5065,10 @@
         <v>171</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -5083,7 +5086,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -5101,13 +5104,13 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5115,10 +5118,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5144,13 +5147,13 @@
         <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5176,10 +5179,10 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -5200,7 +5203,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5221,7 +5224,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5232,10 +5235,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5261,14 +5264,14 @@
         <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5293,10 +5296,10 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -5317,7 +5320,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5338,7 +5341,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5349,10 +5352,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5378,13 +5381,13 @@
         <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5413,10 +5416,10 @@
         <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5434,7 +5437,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
@@ -5452,13 +5455,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5466,10 +5469,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5495,20 +5498,20 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>78</v>
@@ -5532,10 +5535,10 @@
         <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5553,7 +5556,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5571,13 +5574,13 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5585,10 +5588,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5614,13 +5617,13 @@
         <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5650,7 +5653,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5668,7 +5671,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5683,16 +5686,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5700,10 +5703,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5729,10 +5732,10 @@
         <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5783,7 +5786,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5804,7 +5807,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5815,10 +5818,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5841,19 +5844,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5902,7 +5905,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5923,10 +5926,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5934,14 +5937,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5960,17 +5963,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -6019,7 +6022,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6034,16 +6037,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6051,10 +6054,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6077,17 +6080,17 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6136,7 +6139,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6151,16 +6154,16 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6168,10 +6171,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6194,13 +6197,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6251,7 +6254,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6269,13 +6272,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6283,10 +6286,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6398,10 +6401,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6515,10 +6518,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6541,16 +6544,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6600,7 +6603,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6609,33 +6612,33 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6658,23 +6661,23 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>78</v>
@@ -6719,7 +6722,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6728,37 +6731,37 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6777,17 +6780,17 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6836,7 +6839,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6845,7 +6848,7 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6854,13 +6857,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6868,14 +6871,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6894,17 +6897,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6953,7 +6956,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6962,7 +6965,7 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -6974,7 +6977,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6985,10 +6988,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7011,17 +7014,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7070,7 +7073,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7088,13 +7091,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7102,10 +7105,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7131,14 +7134,14 @@
         <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7166,10 +7169,10 @@
         <v>113</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7187,7 +7190,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7205,13 +7208,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7219,14 +7222,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7245,19 +7248,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7306,7 +7309,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7321,16 +7324,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7338,10 +7341,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7364,17 +7367,17 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7423,7 +7426,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7441,13 +7444,13 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7455,10 +7458,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7484,13 +7487,13 @@
         <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7516,10 +7519,10 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7540,7 +7543,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7558,24 +7561,24 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7598,16 +7601,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7657,7 +7660,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7675,13 +7678,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7689,10 +7692,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7715,13 +7718,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7772,7 +7775,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7790,24 +7793,24 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7830,13 +7833,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7887,7 +7890,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7905,10 +7908,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7919,14 +7922,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7945,16 +7948,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8004,7 +8007,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8022,10 +8025,10 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -8036,10 +8039,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8062,17 +8065,17 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8121,7 +8124,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8142,7 +8145,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8153,10 +8156,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8268,10 +8271,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8385,14 +8388,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8414,10 +8417,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -8472,7 +8475,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8504,10 +8507,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8530,17 +8533,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8589,7 +8592,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8610,7 +8613,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8621,10 +8624,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8647,19 +8650,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8708,7 +8711,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8729,7 +8732,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8740,10 +8743,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8766,13 +8769,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8823,7 +8826,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8844,7 +8847,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8855,14 +8858,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8881,17 +8884,17 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8928,7 +8931,7 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
@@ -8938,7 +8941,7 @@
         <v>164</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8959,7 +8962,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8970,10 +8973,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9085,10 +9088,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9202,14 +9205,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9231,10 +9234,10 @@
         <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>138</v>
@@ -9289,7 +9292,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9321,14 +9324,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9350,16 +9353,16 @@
         <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9384,10 +9387,10 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9408,7 +9411,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>89</v>
@@ -9429,7 +9432,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9440,10 +9443,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9466,13 +9469,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9523,7 +9526,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9544,7 +9547,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9555,16 +9558,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9583,17 +9586,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9642,7 +9645,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9657,13 +9660,13 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9674,10 +9677,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9789,10 +9792,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9906,14 +9909,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9935,10 +9938,10 @@
         <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>138</v>
@@ -9993,7 +9996,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10025,14 +10028,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10054,16 +10057,16 @@
         <v>177</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10073,7 +10076,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -10088,10 +10091,10 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
@@ -10112,7 +10115,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>89</v>
@@ -10133,7 +10136,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10144,10 +10147,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10173,10 +10176,10 @@
         <v>177</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10207,7 +10210,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10225,7 +10228,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>89</v>
@@ -10246,7 +10249,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10257,16 +10260,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10285,17 +10288,17 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10344,7 +10347,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10359,13 +10362,13 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10376,10 +10379,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10491,10 +10494,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10608,14 +10611,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10637,10 +10640,10 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>138</v>
@@ -10695,7 +10698,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10727,14 +10730,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10756,16 +10759,16 @@
         <v>177</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10775,7 +10778,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10790,10 +10793,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10814,7 +10817,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>89</v>
@@ -10835,7 +10838,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10846,10 +10849,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10872,13 +10875,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10929,7 +10932,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>89</v>
@@ -10950,7 +10953,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10961,16 +10964,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10989,17 +10992,17 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11048,7 +11051,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11063,13 +11066,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11080,10 +11083,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11195,10 +11198,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11312,14 +11315,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11341,10 +11344,10 @@
         <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>138</v>
@@ -11399,7 +11402,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11431,14 +11434,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11460,16 +11463,16 @@
         <v>177</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11479,7 +11482,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11494,10 +11497,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11518,7 +11521,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11539,7 +11542,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11550,10 +11553,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11576,13 +11579,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11633,7 +11636,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>89</v>
@@ -11654,7 +11657,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11665,16 +11668,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11693,17 +11696,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11752,7 +11755,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11767,13 +11770,13 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11784,10 +11787,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11899,10 +11902,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12016,14 +12019,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12045,10 +12048,10 @@
         <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>138</v>
@@ -12103,7 +12106,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12135,14 +12138,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12164,16 +12167,16 @@
         <v>177</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12183,7 +12186,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12198,10 +12201,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12222,7 +12225,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>89</v>
@@ -12243,7 +12246,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12254,10 +12257,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12280,13 +12283,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12337,7 +12340,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>89</v>
@@ -12358,7 +12361,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12369,16 +12372,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12397,17 +12400,17 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12456,7 +12459,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12471,13 +12474,13 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12488,10 +12491,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12603,10 +12606,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12720,14 +12723,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12749,10 +12752,10 @@
         <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>138</v>
@@ -12807,7 +12810,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12839,14 +12842,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12868,16 +12871,16 @@
         <v>177</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12887,7 +12890,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -12902,10 +12905,10 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -12926,7 +12929,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>89</v>
@@ -12947,7 +12950,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12958,10 +12961,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12984,13 +12987,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13041,7 +13044,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>89</v>
@@ -13062,7 +13065,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13073,16 +13076,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13101,17 +13104,17 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13160,7 +13163,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13175,13 +13178,13 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13192,10 +13195,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13307,10 +13310,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13424,14 +13427,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13453,10 +13456,10 @@
         <v>135</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>138</v>
@@ -13511,7 +13514,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13543,14 +13546,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13572,16 +13575,16 @@
         <v>177</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13591,7 +13594,7 @@
         <v>78</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>78</v>
@@ -13606,10 +13609,10 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
@@ -13630,7 +13633,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>89</v>
@@ -13651,7 +13654,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13662,10 +13665,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13688,13 +13691,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13745,7 +13748,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>89</v>
@@ -13766,7 +13769,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13777,16 +13780,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13805,17 +13808,17 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13864,7 +13867,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -13879,13 +13882,13 @@
         <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -13896,10 +13899,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14011,10 +14014,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14128,14 +14131,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14157,10 +14160,10 @@
         <v>135</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>138</v>
@@ -14215,7 +14218,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14247,14 +14250,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14276,16 +14279,16 @@
         <v>177</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -14295,7 +14298,7 @@
         <v>78</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>78</v>
@@ -14310,10 +14313,10 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>78</v>
@@ -14334,7 +14337,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>89</v>
@@ -14355,7 +14358,7 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14366,10 +14369,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14392,13 +14395,13 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14449,7 +14452,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>89</v>
@@ -14470,7 +14473,7 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14481,10 +14484,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14507,17 +14510,17 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14566,7 +14569,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14587,7 +14590,7 @@
         <v>78</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14598,10 +14601,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14713,10 +14716,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14830,14 +14833,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14859,10 +14862,10 @@
         <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>138</v>
@@ -14917,7 +14920,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14949,14 +14952,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14978,14 +14981,14 @@
         <v>177</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -15010,10 +15013,10 @@
         <v>78</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>78</v>
@@ -15034,7 +15037,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>89</v>
@@ -15055,7 +15058,7 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15066,10 +15069,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15092,17 +15095,17 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15151,7 +15154,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>89</v>
@@ -15172,7 +15175,7 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T12:05:40+00:00</t>
+    <t>2025-10-22T08:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -610,7 +610,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://identifiant-medicosocial-transportprofessionnel.cnsa.fr</t>
+    <t>https://identifiant-medicosocial-transportprofessionnel.esante.gouv.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T08:03:07+00:00</t>
+    <t>2025-10-22T10:16:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-task-transport-professionnel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T10:16:49+00:00</t>
+    <t>2025-10-23T08:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
